--- a/nriss-patch-1/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/nriss-patch-1/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -11,12 +11,87 @@
     <sheet name="Mapping Table 1" r:id="rId5" sheetId="3"/>
     <sheet name="Mapping Table 2" r:id="rId6" sheetId="4"/>
     <sheet name="Mapping Table 3" r:id="rId7" sheetId="5"/>
+    <sheet name="Mapping Table 4" r:id="rId8" sheetId="6"/>
+    <sheet name="Mapping Table 5" r:id="rId9" sheetId="7"/>
+    <sheet name="Mapping Table 6" r:id="rId10" sheetId="8"/>
+    <sheet name="Mapping Table 7" r:id="rId11" sheetId="9"/>
+    <sheet name="Mapping Table 8" r:id="rId12" sheetId="10"/>
+    <sheet name="Mapping Table 9" r:id="rId13" sheetId="11"/>
+    <sheet name="Mapping Table 10" r:id="rId14" sheetId="12"/>
+    <sheet name="Mapping Table 11" r:id="rId15" sheetId="13"/>
+    <sheet name="Mapping Table 12" r:id="rId16" sheetId="14"/>
+    <sheet name="Mapping Table 13" r:id="rId17" sheetId="15"/>
+    <sheet name="Mapping Table 14" r:id="rId18" sheetId="16"/>
+    <sheet name="Mapping Table 15" r:id="rId19" sheetId="17"/>
+    <sheet name="Mapping Table 16" r:id="rId20" sheetId="18"/>
+    <sheet name="Mapping Table 17" r:id="rId21" sheetId="19"/>
+    <sheet name="Mapping Table 18" r:id="rId22" sheetId="20"/>
+    <sheet name="Mapping Table 19" r:id="rId23" sheetId="21"/>
+    <sheet name="Mapping Table 20" r:id="rId24" sheetId="22"/>
+    <sheet name="Mapping Table 21" r:id="rId25" sheetId="23"/>
+    <sheet name="Mapping Table 22" r:id="rId26" sheetId="24"/>
+    <sheet name="Mapping Table 23" r:id="rId27" sheetId="25"/>
+    <sheet name="Mapping Table 24" r:id="rId28" sheetId="26"/>
+    <sheet name="Mapping Table 25" r:id="rId29" sheetId="27"/>
+    <sheet name="Mapping Table 26" r:id="rId30" sheetId="28"/>
+    <sheet name="Mapping Table 27" r:id="rId31" sheetId="29"/>
+    <sheet name="Mapping Table 28" r:id="rId32" sheetId="30"/>
+    <sheet name="Mapping Table 29" r:id="rId33" sheetId="31"/>
+    <sheet name="Mapping Table 30" r:id="rId34" sheetId="32"/>
+    <sheet name="Mapping Table 31" r:id="rId35" sheetId="33"/>
+    <sheet name="Mapping Table 32" r:id="rId36" sheetId="34"/>
+    <sheet name="Mapping Table 33" r:id="rId37" sheetId="35"/>
+    <sheet name="Mapping Table 34" r:id="rId38" sheetId="36"/>
+    <sheet name="Mapping Table 35" r:id="rId39" sheetId="37"/>
+    <sheet name="Mapping Table 36" r:id="rId40" sheetId="38"/>
+    <sheet name="Mapping Table 37" r:id="rId41" sheetId="39"/>
+    <sheet name="Mapping Table 38" r:id="rId42" sheetId="40"/>
+    <sheet name="Mapping Table 39" r:id="rId43" sheetId="41"/>
+    <sheet name="Mapping Table 40" r:id="rId44" sheetId="42"/>
+    <sheet name="Mapping Table 41" r:id="rId45" sheetId="43"/>
+    <sheet name="Mapping Table 42" r:id="rId46" sheetId="44"/>
+    <sheet name="Mapping Table 43" r:id="rId47" sheetId="45"/>
+    <sheet name="Mapping Table 44" r:id="rId48" sheetId="46"/>
+    <sheet name="Mapping Table 45" r:id="rId49" sheetId="47"/>
+    <sheet name="Mapping Table 46" r:id="rId50" sheetId="48"/>
+    <sheet name="Mapping Table 47" r:id="rId51" sheetId="49"/>
+    <sheet name="Mapping Table 48" r:id="rId52" sheetId="50"/>
+    <sheet name="Mapping Table 49" r:id="rId53" sheetId="51"/>
+    <sheet name="Mapping Table 50" r:id="rId54" sheetId="52"/>
+    <sheet name="Mapping Table 51" r:id="rId55" sheetId="53"/>
+    <sheet name="Mapping Table 52" r:id="rId56" sheetId="54"/>
+    <sheet name="Mapping Table 53" r:id="rId57" sheetId="55"/>
+    <sheet name="Mapping Table 54" r:id="rId58" sheetId="56"/>
+    <sheet name="Mapping Table 55" r:id="rId59" sheetId="57"/>
+    <sheet name="Mapping Table 56" r:id="rId60" sheetId="58"/>
+    <sheet name="Mapping Table 57" r:id="rId61" sheetId="59"/>
+    <sheet name="Mapping Table 58" r:id="rId62" sheetId="60"/>
+    <sheet name="Mapping Table 59" r:id="rId63" sheetId="61"/>
+    <sheet name="Mapping Table 60" r:id="rId64" sheetId="62"/>
+    <sheet name="Mapping Table 61" r:id="rId65" sheetId="63"/>
+    <sheet name="Mapping Table 62" r:id="rId66" sheetId="64"/>
+    <sheet name="Mapping Table 63" r:id="rId67" sheetId="65"/>
+    <sheet name="Mapping Table 64" r:id="rId68" sheetId="66"/>
+    <sheet name="Mapping Table 65" r:id="rId69" sheetId="67"/>
+    <sheet name="Mapping Table 66" r:id="rId70" sheetId="68"/>
+    <sheet name="Mapping Table 67" r:id="rId71" sheetId="69"/>
+    <sheet name="Mapping Table 68" r:id="rId72" sheetId="70"/>
+    <sheet name="Mapping Table 69" r:id="rId73" sheetId="71"/>
+    <sheet name="Mapping Table 70" r:id="rId74" sheetId="72"/>
+    <sheet name="Mapping Table 71" r:id="rId75" sheetId="73"/>
+    <sheet name="Mapping Table 72" r:id="rId76" sheetId="74"/>
+    <sheet name="Mapping Table 73" r:id="rId77" sheetId="75"/>
+    <sheet name="Mapping Table 74" r:id="rId78" sheetId="76"/>
+    <sheet name="Mapping Table 75" r:id="rId79" sheetId="77"/>
+    <sheet name="Mapping Table 76" r:id="rId80" sheetId="78"/>
+    <sheet name="Mapping Table 77" r:id="rId81" sheetId="79"/>
+    <sheet name="Mapping Table 78" r:id="rId82" sheetId="80"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="100">
   <si>
     <t>Property</t>
   </si>
@@ -27,7 +102,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hl7.fr/fhir/fr/medication/ConceptMap/PN13-FHIR-prescmed-dosageinstruction-conceptmap</t>
+    <t>https://hl7.fr/ig/fhir/medication/ConceptMap/PN13-FHIR-prescmed-dosageinstruction-conceptmap</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +135,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-10T15:35:36+00:00</t>
+    <t>2026-01-15T08:54:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,39 +153,42 @@
     <t>Jurisdiction</t>
   </si>
   <si>
+    <t>FRANCE</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>ConceptMap pour la conversion PN13 vers FHIR d'une posologie d'une prescritpion de médicament</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>https://interopsante.org/pn13/xsd/M_prescription_medicaments/Prescription/Element_prescr_medic/Element_posologie</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/R4/dosage</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Relationship</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>ConceptMap pour la conversion PN13 vers FHIR d'une posologie d'une prescritpion de médicament</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>https://interopsante.org/pn13/xsd/M_prescription_medicaments/Prescription/Element_prescr_medic/Element_posologie</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>https://hl7.org/fhir/R4/dosage</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>Relationship</t>
-  </si>
-  <si>
     <t>Elément_posologie</t>
   </si>
   <si>
@@ -147,16 +225,115 @@
     <t>Dosage.timing.repeat.period</t>
   </si>
   <si>
+    <t>Elément_posologie/Fréquence_structurée/Frq_filtre/Frq_filtreVal_1_J</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.dayOfWeek</t>
+  </si>
+  <si>
+    <t>Elément_posologie/Fréquence_structurée/Frq_filtre/Frq_filtreVal_1_N</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat</t>
+  </si>
+  <si>
+    <t>Elément_posologie/Fréquence_structurée/Frq_filtre/Frq_filtreVal_2</t>
+  </si>
+  <si>
+    <t>Elément_posologie/Fréquence_structurée/Frq_filtre/Frq_filtreVal_3</t>
+  </si>
+  <si>
+    <t>Elément_posologie/Fréquence_structurée/Frq_filtre/Frq_filtreVal_4</t>
+  </si>
+  <si>
+    <t>Elément_posologie/Fréquence_structurée/Frq_filtre/Frq_filtreVal_5</t>
+  </si>
+  <si>
+    <t>Elément_posologie/Fréquence_structurée/Frq_filtre/Frq_filtreVal_6</t>
+  </si>
+  <si>
     <t>Elément_posologie/Fréquence_structurée/Frq_multiplicité</t>
   </si>
   <si>
     <t>Dosage.timing.repeat.frequency</t>
   </si>
   <si>
-    <t>Elément_posologie/Fréquence_structurée/Frq_filtre/Frq_filtreVal_1_J</t>
-  </si>
-  <si>
-    <t>Dosage.timing.repeat.dayOfWeek</t>
+    <t>Elément_posologie/Fréquence_structurée/Frq_libellé</t>
+  </si>
+  <si>
+    <t>source-is-narrower-than-target</t>
+  </si>
+  <si>
+    <t>Dosage.text</t>
+  </si>
+  <si>
+    <t>Elément_posologie/Int_temps_év_début</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.timeOfDay</t>
+  </si>
+  <si>
+    <t>Elément_posologie/Evénement_début</t>
+  </si>
+  <si>
+    <t>Elément_posologie/Evt_structuré_début/Evénement_structuré/Evt_objet/Evt_activité/Evt_activité_code</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.when</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.offset</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.extension($fr-additional-when-values).valueCode</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.extension($fr-additional-when-values).ValueCode</t>
+  </si>
+  <si>
+    <t>Elément_posologie/Evt_structuré_début/Evénement_structuré/Evt_objet/Evt_période_explicite/Evt_horaireMin</t>
+  </si>
+  <si>
+    <t>Elément_posologie/Evt_structuré_début/Evénement_structuré/Evt_objet/Evt_période_explicite/Evt_horaireMax</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.boundsDuration.value</t>
+  </si>
+  <si>
+    <t>Elément_posologie/Evt_structuré_début/Evénement_structuré/Evt_objet/Evt_période_nommée</t>
+  </si>
+  <si>
+    <t>Dosage.asNeededCodeableConcept.text</t>
+  </si>
+  <si>
+    <t>Elément_posologie/Evt_structuré_début/Evénement_structuré/Evt_clinique/Evt_clinique_code</t>
+  </si>
+  <si>
+    <t>Dosage.asNeededBoolean</t>
+  </si>
+  <si>
+    <t>Elément_posologie/Evt_structuré_début/Evénement_param_poso_cond</t>
+  </si>
+  <si>
+    <t>not-related-to</t>
+  </si>
+  <si>
+    <t>Elément_posologie/Type_événement2_début</t>
+  </si>
+  <si>
+    <t>Elément_posologie/Durée/Nombre</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.duration</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.durationMax</t>
+  </si>
+  <si>
+    <t>Elément_posologie/Durée/Unité</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.durationUnit</t>
   </si>
   <si>
     <t>Elément_posologie/Quantité/Nombre</t>
@@ -165,13 +342,55 @@
     <t>Dosage.doseAndRate.doseQuantity.value</t>
   </si>
   <si>
+    <t>Dosage.doseAndRate.maxDosePerAdministration.value</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.maxDosePerPeriod.numerator.value</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.maxDosePerLifetime.value</t>
+  </si>
+  <si>
     <t>Elément_posologie/Quantité/Unité</t>
   </si>
   <si>
     <t>Dosage.doseAndRate.doseQuantity.code</t>
   </si>
   <si>
-    <t>Dosage.doseAndRate.doseQuantity.unité</t>
+    <t>Dosage.doseAndRate.doseQuantity.unit</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.maxDosePerAdministration.code</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.maxDosePerAdministration.unit</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.maxDosePerPeriod.numerator.code</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.maxDosePerPeriod.numerator.unit</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.maxDosePerLifetime.numerator.code</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.maxDosePerLifetime.numerator.unit</t>
+  </si>
+  <si>
+    <t>Elément_posologie/Débit/Nombre</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rateQuantity.value</t>
+  </si>
+  <si>
+    <t>Elément_posologie/Débit/Unité</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rateQuantity.code</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rateQuantity.unit</t>
   </si>
 </sst>
 </file>
@@ -442,498 +661,5687 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2"/>
-      <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s" s="2">
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
         <v>33</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>54</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
         <v>32</v>
       </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="D4" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
         <v>35</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>37</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>41</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E6" s="2"/>
     </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2"/>
-      <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
+    <row r="7">
+      <c r="A7" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="D3" t="s" s="2">
-        <v>40</v>
+      <c r="B7" s="2"/>
+      <c r="C7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>62</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>40</v>
+        <v>63</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>45</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>70</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="E13" s="2"/>
     </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2"/>
-      <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
         <v>46</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>77</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>43</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="E9" s="2"/>
     </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2"/>
-      <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>48</v>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>43</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E5" s="2"/>
     </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
